--- a/HistoriasDeUsuarios.xlsx
+++ b/HistoriasDeUsuarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uniejdias\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B417D-F0AF-4CE3-A51C-449F3F64E596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0EFA6F-4679-4D58-95C6-63C6F6EDB7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C6DDAB1C-26E4-4053-B448-22E503459630}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="132">
   <si>
     <t>HU1</t>
   </si>
@@ -274,12 +274,192 @@
   <si>
     <t>Então</t>
   </si>
+  <si>
+    <t>1. Registro de conta válido</t>
+  </si>
+  <si>
+    <t>2. Campos obrigatórios não preenchidos</t>
+  </si>
+  <si>
+    <t>que o usuário acessa a página de cadastro e informa dados válidos e jogos já jogados</t>
+  </si>
+  <si>
+    <t>que o usuário acessa a página de cadastro e informa dados inválidos ou imcompletos</t>
+  </si>
+  <si>
+    <t>ele envia os dados corretos</t>
+  </si>
+  <si>
+    <t>ele envia os dados inválidos</t>
+  </si>
+  <si>
+    <t>a conta deve ser criada e histórico salvo</t>
+  </si>
+  <si>
+    <t>o sistema deve exibir erro e não criar a conta</t>
+  </si>
+  <si>
+    <t>1. Avaliação válida</t>
+  </si>
+  <si>
+    <t>2. Avaliação inválida</t>
+  </si>
+  <si>
+    <t>que o usuário está logado e acessa a página de um jogo</t>
+  </si>
+  <si>
+    <t>ele submete uma nota e crítica válida</t>
+  </si>
+  <si>
+    <t>ele submete uma avaliação sem nota ou texto</t>
+  </si>
+  <si>
+    <t>a avaliação deve ser registrada e exibida</t>
+  </si>
+  <si>
+    <t>o sistema deve exibir erro e não salvar a avaliação</t>
+  </si>
+  <si>
+    <t>1. Lista de favoritos criada</t>
+  </si>
+  <si>
+    <t>que o usuário está logado</t>
+  </si>
+  <si>
+    <t>2. Lista sem jogos</t>
+  </si>
+  <si>
+    <t>ele adiciona jogos à sua lista de favoritos</t>
+  </si>
+  <si>
+    <t>ele tenta salvar uma lista sem jogos</t>
+  </si>
+  <si>
+    <t>a lista deve ser salva e exibida no perfil</t>
+  </si>
+  <si>
+    <t>o sistema deve exibir erro e não salvar a lista</t>
+  </si>
+  <si>
+    <t>1. Seguir usuário válido</t>
+  </si>
+  <si>
+    <t>2. Seguir usuário inexistente/bloqueado</t>
+  </si>
+  <si>
+    <t>ele clica para seguir outro usuário</t>
+  </si>
+  <si>
+    <t>ele tenta seguir usuário inexistente ou bloqueado</t>
+  </si>
+  <si>
+    <t>o sistema registra o seguimento e mostra conteúdos no feed</t>
+  </si>
+  <si>
+    <t>o sistema exibe erro e não registra seguimento</t>
+  </si>
+  <si>
+    <t>1. Recomendações exibidas</t>
+  </si>
+  <si>
+    <t>2. Nenhuma recomendação disponível</t>
+  </si>
+  <si>
+    <t>que o usuário está logado e possui avaliações registradas</t>
+  </si>
+  <si>
+    <t>que o usuário está logado e não possui avaliações</t>
+  </si>
+  <si>
+    <t>ele acessa a página inicial</t>
+  </si>
+  <si>
+    <t>o sistema exibe recomendações baseadas nas avaliações</t>
+  </si>
+  <si>
+    <t>o sistema exibe mensagem de que não há recomendações</t>
+  </si>
+  <si>
+    <t>1. Receber badges</t>
+  </si>
+  <si>
+    <t>2. Não receber badges por avaliações insuficientes</t>
+  </si>
+  <si>
+    <t>ele completa número suficiente de avaliações em um gênero</t>
+  </si>
+  <si>
+    <t>ele não possui avaliações suficientes</t>
+  </si>
+  <si>
+    <t>o sistema concede badge e mostra ranqueamento</t>
+  </si>
+  <si>
+    <t>o sistema não concede badge e mostra progresso</t>
+  </si>
+  <si>
+    <t>1. Acessar página de compra</t>
+  </si>
+  <si>
+    <t>2. Erro ao acessar compra de jogo inexistente</t>
+  </si>
+  <si>
+    <t>ele clica no botão de compra de um jogo</t>
+  </si>
+  <si>
+    <t>ele clica em botão de compra de jogo inexistente</t>
+  </si>
+  <si>
+    <t>o sistema redireciona para a página de compra</t>
+  </si>
+  <si>
+    <t>o sistema exibe mensagem de erro</t>
+  </si>
+  <si>
+    <t>1. Assinatura realizada</t>
+  </si>
+  <si>
+    <t>2. Falha na assinatura</t>
+  </si>
+  <si>
+    <t>1. Anúncio publicado</t>
+  </si>
+  <si>
+    <t>2. Erro no anúncio</t>
+  </si>
+  <si>
+    <t>que a empresa está cadastrada no sistema</t>
+  </si>
+  <si>
+    <t>ele fornece os dados de pagamento válidos</t>
+  </si>
+  <si>
+    <t>ele fornece dados inválidos</t>
+  </si>
+  <si>
+    <t>ela submete um anúncio válido</t>
+  </si>
+  <si>
+    <t>ela submete anúncio com dados incompletos</t>
+  </si>
+  <si>
+    <t>o sistema ativa a assinatura e concede benefícios</t>
+  </si>
+  <si>
+    <t>o sistema exibe erro e não ativa a assinatura</t>
+  </si>
+  <si>
+    <t>o sistema publica o anúncio</t>
+  </si>
+  <si>
+    <t>o sistema exibe erro e não publica anúncio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,13 +469,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -324,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -347,37 +520,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -394,7 +541,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -403,37 +550,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -759,7 +894,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
@@ -1042,11 +1177,11 @@
   </sheetPr>
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
@@ -1215,16 +1350,17 @@
   </sheetPr>
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="51.140625" style="5" customWidth="1"/>
-    <col min="4" max="7" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="35.7109375" style="15" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1239,213 +1375,339 @@
       <c r="D2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="D5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="D7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="D9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="19"/>
+      <c r="D11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19" t="s">
-        <v>67</v>
+      <c r="D13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
-        <v>67</v>
+      <c r="D15" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="D17" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="19"/>
+      <c r="D19" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1469,6 +1731,6 @@
     <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HistoriasDeUsuarios.xlsx
+++ b/HistoriasDeUsuarios.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uniejdias\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leandroalencar/dev/track-games/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0EFA6F-4679-4D58-95C6-63C6F6EDB7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA1A7D6-5A95-3143-973E-65364B3DE010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C6DDAB1C-26E4-4053-B448-22E503459630}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C6DDAB1C-26E4-4053-B448-22E503459630}"/>
   </bookViews>
   <sheets>
     <sheet name="INVEST" sheetId="1" r:id="rId1"/>
     <sheet name="MoSCoW" sheetId="2" r:id="rId2"/>
     <sheet name="Gherkin" sheetId="3" r:id="rId3"/>
+    <sheet name="Pontos de História" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,15 +32,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="137">
   <si>
     <t>HU1</t>
   </si>
@@ -454,12 +452,27 @@
   <si>
     <t>o sistema exibe erro e não publica anúncio</t>
   </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Pontos de História</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Baixa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,8 +495,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +513,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -557,20 +583,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,9 +625,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -629,7 +665,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -735,7 +771,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -877,7 +913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -894,17 +930,17 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="51.140625" style="5" customWidth="1"/>
-    <col min="4" max="9" width="15.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="2"/>
+    <col min="3" max="3" width="51.1640625" style="5" customWidth="1"/>
+    <col min="4" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -930,7 +966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="96" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -956,7 +992,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -982,7 +1018,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1044,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1034,7 +1070,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1060,7 +1096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1112,7 +1148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1138,7 +1174,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="84" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1181,17 +1217,17 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="51.140625" style="5" customWidth="1"/>
-    <col min="4" max="7" width="10.7109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="2"/>
+    <col min="3" max="3" width="51.1640625" style="5" customWidth="1"/>
+    <col min="4" max="7" width="10.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1211,7 +1247,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1261,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1239,7 +1275,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1289,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1267,7 +1303,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1317,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1295,7 +1331,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +1345,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1359,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1350,22 +1386,22 @@
   </sheetPr>
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="40.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="2" customWidth="1"/>
-    <col min="5" max="7" width="35.7109375" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="2"/>
+    <col min="3" max="3" width="40.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="2" customWidth="1"/>
+    <col min="5" max="7" width="35.6640625" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1385,332 +1421,632 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="7" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905FE331-E2EE-8149-9CD2-4943D8F9E9C8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:F25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="2"/>
+    <col min="3" max="3" width="41" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="16">
+        <v>3</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="16">
+        <v>3</v>
+      </c>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="16">
+        <v>7</v>
+      </c>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="16">
+        <v>8</v>
+      </c>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="16">
+        <v>5</v>
+      </c>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B17:B18"/>
@@ -1723,8 +2059,8 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B7:B8"/>

--- a/HistoriasDeUsuarios.xlsx
+++ b/HistoriasDeUsuarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leandroalencar/dev/track-games/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uniflalencar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA1A7D6-5A95-3143-973E-65364B3DE010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB5B24-955E-4E96-A024-3DA7FB47C377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C6DDAB1C-26E4-4053-B448-22E503459630}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C6DDAB1C-26E4-4053-B448-22E503459630}"/>
   </bookViews>
   <sheets>
     <sheet name="INVEST" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Gherkin" sheetId="3" r:id="rId3"/>
     <sheet name="Pontos de História" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Pontos de História'!$B$2:$E$11,'Pontos de História'!$G$2:$I$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,12 +35,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="147">
   <si>
     <t>HU1</t>
   </si>
@@ -466,6 +472,36 @@
   </si>
   <si>
     <t>Baixa</t>
+  </si>
+  <si>
+    <t>1 a 3</t>
+  </si>
+  <si>
+    <t>Justificativa</t>
+  </si>
+  <si>
+    <t>Complexidade</t>
+  </si>
+  <si>
+    <t>Simples</t>
+  </si>
+  <si>
+    <t>Complexa</t>
+  </si>
+  <si>
+    <t>4 a 6</t>
+  </si>
+  <si>
+    <t>7 a 8</t>
+  </si>
+  <si>
+    <t>Processos que exigem a criação de formulários, inserções em banco e/ou implementação de módulos já existentes</t>
+  </si>
+  <si>
+    <t>Processos que exigem uma autenticação e/ou segurança maior e/ou regras de negócio mais complexas</t>
+  </si>
+  <si>
+    <t>Processos que exigem critérios estruturados e diagramação de banco de dados complexa, além de fluxos maiores do usuário e fluxos que devem seguir regras estritas, tanto as validando para evitar bypass pelo usuário</t>
   </si>
 </sst>
 </file>
@@ -523,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -546,11 +582,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -607,6 +656,30 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,9 +698,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -665,7 +738,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -771,7 +844,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -913,7 +986,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -930,17 +1003,17 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="2"/>
-    <col min="3" max="3" width="51.1640625" style="5" customWidth="1"/>
-    <col min="4" max="9" width="15.6640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="51.140625" style="5" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -966,7 +1039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="101.25" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1065,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1091,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1117,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1070,7 +1143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1096,7 +1169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1122,7 +1195,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1148,7 +1221,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1174,7 +1247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="84" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1217,17 +1290,17 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="2"/>
-    <col min="3" max="3" width="51.1640625" style="5" customWidth="1"/>
-    <col min="4" max="7" width="10.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="51.140625" style="5" customWidth="1"/>
+    <col min="4" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1247,7 +1320,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1334,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1348,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1289,7 +1362,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1303,7 +1376,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1317,7 +1390,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1331,7 +1404,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1345,7 +1418,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1359,7 +1432,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1390,18 +1463,18 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="2"/>
-    <col min="3" max="3" width="40.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="35.6640625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="40.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="35.7109375" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1421,11 +1494,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1441,9 +1514,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="7" t="s">
         <v>73</v>
       </c>
@@ -1457,11 +1530,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1477,9 +1550,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="7" t="s">
         <v>81</v>
       </c>
@@ -1493,11 +1566,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1513,9 +1586,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="7" t="s">
         <v>89</v>
       </c>
@@ -1529,11 +1602,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1549,9 +1622,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="7" t="s">
         <v>95</v>
       </c>
@@ -1565,11 +1638,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1585,9 +1658,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
+    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="7" t="s">
         <v>101</v>
       </c>
@@ -1601,11 +1674,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1621,9 +1694,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
+    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="7" t="s">
         <v>108</v>
       </c>
@@ -1637,11 +1710,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1657,9 +1730,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="7" t="s">
         <v>114</v>
       </c>
@@ -1673,11 +1746,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1693,9 +1766,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="7" t="s">
         <v>120</v>
       </c>
@@ -1709,11 +1782,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1729,9 +1802,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="11" t="s">
         <v>122</v>
       </c>
@@ -1747,306 +1820,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905FE331-E2EE-8149-9CD2-4943D8F9E9C8}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:F25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="2"/>
-    <col min="3" max="3" width="41" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="16">
-        <v>3</v>
-      </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="16">
-        <v>3</v>
-      </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2</v>
-      </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="16">
-        <v>2</v>
-      </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="16">
-        <v>7</v>
-      </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="16">
-        <v>8</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="16">
-        <v>5</v>
-      </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B17:B18"/>
@@ -2059,8 +1832,8 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B7:B8"/>
@@ -2069,4 +1842,253 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905FE331-E2EE-8149-9CD2-4943D8F9E9C8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:I16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="57" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" style="12" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="90.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="24">
+        <v>3</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="16">
+        <v>7</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="16">
+        <v>8</v>
+      </c>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="16">
+        <v>5</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="27"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="27"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="27"/>
+      <c r="F16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="1" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>
--- a/HistoriasDeUsuarios.xlsx
+++ b/HistoriasDeUsuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uniflalencar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB5B24-955E-4E96-A024-3DA7FB47C377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C897B6-2943-4783-B285-DFD8313C2D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C6DDAB1C-26E4-4053-B448-22E503459630}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Pontos de História" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Pontos de História'!$B$2:$E$11,'Pontos de História'!$G$2:$I$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Pontos de História'!$B$2:$E$11,'Pontos de História'!$G$2:$I$5,'Pontos de História'!$B$13:$I$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="150">
   <si>
     <t>HU1</t>
   </si>
@@ -502,6 +502,15 @@
   </si>
   <si>
     <t>Processos que exigem critérios estruturados e diagramação de banco de dados complexa, além de fluxos maiores do usuário e fluxos que devem seguir regras estritas, tanto as validando para evitar bypass pelo usuário</t>
+  </si>
+  <si>
+    <t>Primeira rodada - HU01</t>
+  </si>
+  <si>
+    <t>Segunda rodada - HU01</t>
+  </si>
+  <si>
+    <t>Após segunda rodada, chegamos em consenso</t>
   </si>
 </sst>
 </file>
@@ -656,29 +665,29 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,6 +704,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10404</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>362745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED8DBEE-1E98-456E-842B-5CD67D273621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="181841" y="4632614"/>
+          <a:ext cx="6296904" cy="5696745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>69271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3384160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>166456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BE49CC-9110-469A-900F-E1877099D49A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6468341" y="5082885"/>
+          <a:ext cx="5479660" cy="3526185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1495,10 +1597,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1515,8 +1617,8 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="7" t="s">
         <v>73</v>
       </c>
@@ -1531,10 +1633,10 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1551,8 +1653,8 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="7" t="s">
         <v>81</v>
       </c>
@@ -1567,10 +1669,10 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1587,8 +1689,8 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="7" t="s">
         <v>89</v>
       </c>
@@ -1603,10 +1705,10 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1623,8 +1725,8 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="7" t="s">
         <v>95</v>
       </c>
@@ -1639,10 +1741,10 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1659,8 +1761,8 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="7" t="s">
         <v>101</v>
       </c>
@@ -1675,10 +1777,10 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1695,8 +1797,8 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="7" t="s">
         <v>108</v>
       </c>
@@ -1711,10 +1813,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1731,8 +1833,8 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="7" t="s">
         <v>114</v>
       </c>
@@ -1747,10 +1849,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1767,8 +1869,8 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="7" t="s">
         <v>120</v>
       </c>
@@ -1783,10 +1885,10 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1803,8 +1905,8 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="11" t="s">
         <v>122</v>
       </c>
@@ -1820,24 +1922,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
@@ -1851,8 +1953,8 @@
   </sheetPr>
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1861,7 +1963,7 @@
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="57" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.7109375" style="12" customWidth="1"/>
     <col min="7" max="8" width="15.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="90.7109375" style="1" customWidth="1"/>
@@ -1879,7 +1981,7 @@
       <c r="D2" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>133</v>
       </c>
       <c r="F2" s="17"/>
@@ -1894,16 +1996,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="22">
         <v>3</v>
       </c>
       <c r="F3" s="18"/>
@@ -2056,15 +2158,20 @@
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="27"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
+      <c r="G13" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -2072,23 +2179,27 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
+      <c r="G14" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="27"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="27"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="1" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>